--- a/box.xlsx
+++ b/box.xlsx
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>病</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黑骑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>病</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水黑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>病</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猫剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,13 +311,25 @@
   </si>
   <si>
     <t>剑圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病娇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -688,13 +688,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -713,10 +713,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -724,10 +724,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -784,156 +784,156 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -949,134 +949,134 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -1092,101 +1092,101 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/box.xlsx
+++ b/box.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>狼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +323,10 @@
   </si>
   <si>
     <t>病娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春猫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +682,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1068,6 +1072,11 @@
         <v>76</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C36" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>31</v>

--- a/box.xlsx
+++ b/box.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
   <si>
     <t>狼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,14 @@
   </si>
   <si>
     <t>春猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空花</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1198,6 +1206,17 @@
         <v>56</v>
       </c>
     </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/box.xlsx
+++ b/box.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="104">
   <si>
     <t>狼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <t>忍</t>
   </si>
   <si>
-    <t>tp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击弓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,108 +230,160 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wkb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wkq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>狼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫拳</t>
+  </si>
+  <si>
+    <t>病娇</t>
+  </si>
+  <si>
+    <t>黑骑</t>
   </si>
   <si>
     <t>猫剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吉他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>水白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>普妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp弓</t>
   </si>
   <si>
     <t>暴击弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>yls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>春田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>春剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>妹法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>普黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wkb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wkq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水黑</t>
+  </si>
+  <si>
+    <t>yly</t>
+  </si>
+  <si>
+    <t>圣母</t>
+  </si>
+  <si>
+    <t>xcw</t>
+  </si>
+  <si>
+    <t>水猫剑</t>
   </si>
   <si>
     <t>剑圣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病娇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病娇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病娇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>春猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电宝</t>
+  </si>
+  <si>
+    <t>望</t>
+  </si>
+  <si>
+    <t>布丁</t>
+  </si>
+  <si>
+    <t>中二</t>
+  </si>
+  <si>
+    <t>姐姐</t>
+  </si>
+  <si>
+    <t>松鼠</t>
+  </si>
+  <si>
+    <t>吃货</t>
+  </si>
+  <si>
+    <t>奶牛</t>
   </si>
   <si>
     <t>空花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃铛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃铛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊驼</t>
   </si>
 </sst>
 </file>
@@ -687,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -700,13 +748,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -714,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -725,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -736,10 +784,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -777,10 +825,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -791,18 +839,18 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -813,7 +861,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -835,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -846,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -879,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -890,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -901,7 +949,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -917,35 +965,35 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -961,139 +1009,139 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -1109,112 +1157,134 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
